--- a/biology/Zoologie/Ipnopidae/Ipnopidae.xlsx
+++ b/biology/Zoologie/Ipnopidae/Ipnopidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons-tripodes ou ipnopidés (Ipnopidae) forment une famille de poissons des abysses de l'ordre des Aulopiformes. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de petits poissons minces, avec une longueur maximale allant d'environ 10 à 40 cm. On les trouve dans les eaux tempérées et tropicales profondes de l'Atlantique des océans Indien et Pacifique.
 Un certain nombre d'espèces, en particulier dans le genre Bathypterois ont les nageoires pectorales et pelviennes allongés. Dans le cas du poisson trépied, Bathypterois grallator, ses palmes sont trois fois plus longues que le corps - jusqu'à 1 m de longueur - et sont utilisées pour se poser sur le fond marin. Les ipnopidés ont des yeux minuscules ou de très grands yeux (notamment les Ipnops) ; dans les deux cas ils semblent avoir une vision très pauvre et seraient incapables de former une image.
@@ -545,9 +559,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a 30 espèces dans 5 genres[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a 30 espèces dans 5 genres :
 Genre Bathymicrops Hjort &amp; Koefoed, 1912
 Bathymicrops belyaninae Nielsen &amp; Merrett, 1992.
 Bathymicrops brevianalis Nielsen, 1966.
